--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -1,92 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Austin Daspit\Desktop\Programming\Business\CNN008_Formatting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9375" windowWidth="24000" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9375"/>
   </bookViews>
   <sheets>
-    <sheet name="Survey Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Survey Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selected Body found in search for missing North Carolina teen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> started viewing C:\Users\Neuroden\Desktop\CNN008_PC-11-29-2018\11-29-2018\assets\cnn_videos\Negative_5_2018-11-28_Body found in search for Hania Noelia Aguilar - CNN.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selected Indian authorities struggle to retrieve US missionary feared killed on remote island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survey answers | boring/entertaining : boring_entertaining_7 unexciting/exciting : unexciting_exciting_7 negative/positive : negative_positive_7 political/nonpolitical : nonpolitical_political_1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> started viewing C:\Users\Neuroden\Desktop\CNN008_PC-11-29-2018\11-29-2018\assets\cnn_videos\California fires Bus driver from heaven Kevin McKay rescue.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> started viewing C:\Users\Neuroden\Desktop\CNN008_PC-11-29-2018\11-29-2018\assets\cnn_videos\Shanghai luxury hotel opens in once-abandoned quarry.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survey answers | boring/entertaining : boring_entertaining_5 unexciting/exciting : unexciting_exciting_5 negative/positive : negative_positive_7 political/nonpolitical : nonpolitical_political_1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survey answers | boring/entertaining : boring_entertaining_6 unexciting/exciting : unexciting_exciting_6 negative/positive : negative_positive_6 political/nonpolitical : nonpolitical_political_1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> started viewing C:\Users\Neuroden\Desktop\CNN008_PC-11-29-2018\11-29-2018\assets\entertainment_clips\America_s Got Talent_Howie Mandel Is Always Playing Deal Or No Deal -  2018.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> started viewing C:\Users\Neuroden\Desktop\CNN008_PC-11-29-2018\11-29-2018\assets\entertainment_clips\The Big Bang Theory - Devastated (S12E09).mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survey answers | boring/entertaining : boring_entertaining_5 unexciting/exciting : unexciting_exciting_5 negative/positive : negative_positive_4 political/nonpolitical : nonpolitical_political_1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survey answers | boring/entertaining : boring_entertaining_4 unexciting/exciting : unexciting_exciting_4 negative/positive : negative_positive_4 political/nonpolitical : nonpolitical_political_1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selected US calls for release of young Americans trapped in China ahead of G20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> started viewing C:\Users\Neuroden\Desktop\CNN008_PC-11-29-2018\11-29-2018\assets\cnn_videos\Political_4_who-is-alexander-acosta.cnn_1232051_768x432_1300k.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> started viewing C:\Users\Neuroden\Desktop\CNN008_PC-11-29-2018\11-29-2018\assets\cnn_videos\Political_1_g20-summit-argentina-preview-trump-us-china-trade-war-matt-rivers-pkg-vpx.cnn_2358532_768x432_1300k.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survey answers | boring/entertaining : boring_entertaining_6 unexciting/exciting : unexciting_exciting_6 negative/positive : negative_positive_4 political/nonpolitical : nonpolitical_political_2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survey answers | boring/entertaining : boring_entertaining_5 unexciting/exciting : unexciting_exciting_4 negative/positive : negative_positive_4 political/nonpolitical : nonpolitical_political_6 </t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,15 +51,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -376,218 +334,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="n">
-        <v>23630</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>23630</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>23630</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>23630</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>23630</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>23630</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>23630</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>23630</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>23630</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>23630</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>23630</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>23630</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>23630</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>23630</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="n">
-        <v>23630</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>23630</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="n">
-        <v>23630</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="n">
-        <v>23630</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>